--- a/Excel2Json/Test/hero_levelup.xlsx
+++ b/Excel2Json/Test/hero_levelup.xlsx
@@ -27,10 +27,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +347,10 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>id[150]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -810,10 +810,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -873,10 +873,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -897,27 +897,27 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="11"/>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10"/>
       <c r="M7" s="14"/>
@@ -927,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="7"/>
@@ -948,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="7"/>
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="7"/>
@@ -990,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="7"/>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="7"/>
@@ -1032,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="7"/>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="7"/>
@@ -1074,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="7"/>
@@ -1095,7 +1095,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1112,7 +1112,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1129,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7"/>
     </row>
@@ -1155,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1163,7 +1163,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1171,7 +1171,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1179,7 +1179,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1187,7 +1187,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1195,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -1211,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -1219,7 +1219,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -1227,7 +1227,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -1235,7 +1235,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -1243,7 +1243,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -1251,7 +1251,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1259,7 +1259,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1267,7 +1267,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1275,7 +1275,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1283,7 +1283,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1291,7 +1291,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1299,7 +1299,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1307,7 +1307,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1315,7 +1315,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1323,7 +1323,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1331,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1339,7 +1339,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1347,7 +1347,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1355,7 +1355,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1363,7 +1363,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1371,7 +1371,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1379,7 +1379,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1387,7 +1387,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1395,7 +1395,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1403,7 +1403,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1411,7 +1411,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1419,7 +1419,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1427,7 +1427,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1435,7 +1435,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1443,7 +1443,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1451,7 +1451,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1459,7 +1459,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1467,7 +1467,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1475,7 +1475,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1483,7 +1483,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1491,7 +1491,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1499,7 +1499,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1507,7 +1507,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1515,7 +1515,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1523,7 +1523,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1531,7 +1531,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1539,7 +1539,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1547,7 +1547,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1555,7 +1555,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1563,7 +1563,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1571,7 +1571,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1579,7 +1579,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1587,7 +1587,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1595,7 +1595,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1603,7 +1603,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1611,7 +1611,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1619,7 +1619,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1627,7 +1627,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1635,7 +1635,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1643,7 +1643,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1651,7 +1651,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1659,7 +1659,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1667,7 +1667,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1675,7 +1675,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1683,7 +1683,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1691,7 +1691,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1699,7 +1699,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1707,7 +1707,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1715,7 +1715,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1723,7 +1723,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1731,7 +1731,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1739,7 +1739,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1747,7 +1747,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1755,7 +1755,7 @@
         <v>91</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1763,7 +1763,7 @@
         <v>92</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1771,7 +1771,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1779,7 +1779,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1787,7 +1787,7 @@
         <v>95</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1795,7 +1795,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1803,7 +1803,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1811,7 +1811,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1819,7 +1819,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1827,7 +1827,7 @@
         <v>100</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
